--- a/bin/Tables.xlsx
+++ b/bin/Tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\survival-models\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82202877-F944-42FB-BD3D-72E706D71CBA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BE5AC-848E-4808-8AAF-D5A03F0C04FA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="11280" xr2:uid="{C3929536-6DEA-4134-862E-CBCA1F30A99D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Time</t>
   </si>
@@ -57,9 +58,6 @@
     <t>0/1</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>4/5 = 0.8</t>
   </si>
   <si>
@@ -73,16 +71,92 @@
   </si>
   <si>
     <t>4/5*3/4= 0.6</t>
+  </si>
+  <si>
+    <t>6, 44+, 98, 114</t>
+  </si>
+  <si>
+    <t>14, 44,89+, 98, 104</t>
+  </si>
+  <si>
+    <t>d1i</t>
+  </si>
+  <si>
+    <t>n1i</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>5*1/9=0.556</t>
+  </si>
+  <si>
+    <t>5*1/8=0.625</t>
+  </si>
+  <si>
+    <t>4*1/7=0.571</t>
+  </si>
+  <si>
+    <t>2*2/4=1.000</t>
+  </si>
+  <si>
+    <t>1*1/2=0.500</t>
+  </si>
+  <si>
+    <t>0*1/1=0.000</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>d0i</t>
+  </si>
+  <si>
+    <t>n0i</t>
+  </si>
+  <si>
+    <t>4*5*1*(9-1)/(9^2*8)=0.2469</t>
+  </si>
+  <si>
+    <t>vi=n1in0idi(ni-di)/ni^2(ni-1)</t>
+  </si>
+  <si>
+    <t>3*5*1*(8-1)/(8^2*7)=0.2344</t>
+  </si>
+  <si>
+    <t>2*2*2*(4-2)/(4^2*3)=0.3333</t>
+  </si>
+  <si>
+    <t>1*1*1*(2-1)/(2^2*1)=0.2500</t>
+  </si>
+  <si>
+    <t>1*0*1*(1-0)/(1^2*0)=0.0000</t>
+  </si>
+  <si>
+    <t>3*4*1*(7-1)/(7^2*6)=0.2449</t>
+  </si>
+  <si>
+    <t>Cumulative Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +200,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -445,12 +529,14 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="5" width="7.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="30" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -472,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -492,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -512,27 +598,27 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -552,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -572,7 +658,252 @@
         <v>9</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D7155-2D81-4371-B675-557760D0E58A}">
+  <dimension ref="B1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="8" width="7" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20" style="5" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Tables.xlsx
+++ b/bin/Tables.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\survival-models\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BE5AC-848E-4808-8AAF-D5A03F0C04FA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FA5AE-D708-41C7-8F15-254164FF928F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="11280" xr2:uid="{C3929536-6DEA-4134-862E-CBCA1F30A99D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="11280" activeTab="1" xr2:uid="{C3929536-6DEA-4134-862E-CBCA1F30A99D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 2.2" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 2.10" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Time</t>
   </si>
@@ -76,18 +76,6 @@
     <t>6, 44+, 98, 114</t>
   </si>
   <si>
-    <t>14, 44,89+, 98, 104</t>
-  </si>
-  <si>
-    <t>d1i</t>
-  </si>
-  <si>
-    <t>n1i</t>
-  </si>
-  <si>
-    <t>ei</t>
-  </si>
-  <si>
     <t>5*1/9=0.556</t>
   </si>
   <si>
@@ -112,18 +100,9 @@
     <t>Female</t>
   </si>
   <si>
-    <t>d0i</t>
-  </si>
-  <si>
-    <t>n0i</t>
-  </si>
-  <si>
     <t>4*5*1*(9-1)/(9^2*8)=0.2469</t>
   </si>
   <si>
-    <t>vi=n1in0idi(ni-di)/ni^2(ni-1)</t>
-  </si>
-  <si>
     <t>3*5*1*(8-1)/(8^2*7)=0.2344</t>
   </si>
   <si>
@@ -140,13 +119,124 @@
   </si>
   <si>
     <t>Cumulative Product</t>
+  </si>
+  <si>
+    <t>This spreadsheet reproduces the calculations shown in Table 2.10 of Hosmer, Lemeshow, and May.</t>
+  </si>
+  <si>
+    <t>14, 44, 89+, 98, 104</t>
+  </si>
+  <si>
+    <t>This spreadsheet reproduces the calculations shown in Table 2.2 of Hosmer, Lemeshow, and May.</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>6, 44, 21+, 14, 62</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +247,14 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,6 +325,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1561927</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82F5CD5-3B85-4353-8894-8651C45C1413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="1028700"/>
+          <a:ext cx="1380952" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1085743</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9922B6-14B8-4491-9261-A38C0D9D8DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="1104900"/>
+          <a:ext cx="857143" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B80A4EC-92CC-40A0-8128-4B5CCBF38BE5}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,122 +733,140 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>62</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -669,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D7155-2D81-4371-B675-557760D0E58A}">
-  <dimension ref="B1:J11"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,229 +894,233 @@
     <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>98</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>98</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>104</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    </row>
+    <row r="15" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/Tables.xlsx
+++ b/bin/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\survival-models\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FA5AE-D708-41C7-8F15-254164FF928F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E947D560-631E-4559-90A8-19F10B0E75FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="11280" activeTab="1" xr2:uid="{C3929536-6DEA-4134-862E-CBCA1F30A99D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Table 2.2" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2.10" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Time</t>
   </si>
@@ -231,11 +231,55 @@
       <t>i</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1i</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +354,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,13 +388,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1561927</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>66624</xdr:rowOff>
@@ -878,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D7155-2D81-4371-B675-557760D0E58A}">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,17 +946,18 @@
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="8" width="7" style="5" customWidth="1"/>
     <col min="9" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="10" width="10.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
@@ -907,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -915,8 +973,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,12 +996,15 @@
       <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -968,11 +1029,14 @@
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="10">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>14</v>
       </c>
@@ -997,11 +1061,14 @@
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44</v>
       </c>
@@ -1026,11 +1093,14 @@
       <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="10">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>98</v>
       </c>
@@ -1055,11 +1125,14 @@
       <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>104</v>
       </c>
@@ -1084,11 +1157,14 @@
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>114</v>
       </c>
@@ -1113,14 +1189,49 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="J16" s="11">
+        <f>SUM(J9:J14)</f>
+        <v>0.748</v>
+      </c>
+      <c r="K16" s="11">
+        <f>0.2469+0.2344+0.2449+0.3333+0.25+0</f>
+        <v>1.3094999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="11"/>
+      <c r="K17" s="13">
+        <f>J16^2/K16</f>
+        <v>0.4272653684612448</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>